--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555563B4-0080-4AE4-91C4-175C9BBCD377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="769" activeTab="9"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camera" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,9 @@
     <sheet name="Boss" sheetId="12" r:id="rId9"/>
     <sheet name="Stat" sheetId="9" r:id="rId10"/>
     <sheet name="Attack" sheetId="11" r:id="rId11"/>
-    <sheet name="AI" sheetId="10" r:id="rId12"/>
-    <sheet name="Item" sheetId="13" r:id="rId13"/>
+    <sheet name="Buff" sheetId="14" r:id="rId12"/>
+    <sheet name="AI" sheetId="10" r:id="rId13"/>
+    <sheet name="Item" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,12 +83,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>이태섭</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -146,12 +148,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="180">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,22 +873,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicAttack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicAttack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicAttack3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>회전 참격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무거운 회전 참격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 찍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아서 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Melee Attack Backhand (2)</t>
+  </si>
+  <si>
+    <t>올려치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육참골단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash1</t>
+  </si>
+  <si>
+    <t>sword and shield slash2</t>
+  </si>
+  <si>
+    <t>sword and shield slash3</t>
+  </si>
+  <si>
+    <t>sword and shield Spin Slash</t>
+  </si>
+  <si>
+    <t>sword and shield Spin Slash 2 Hand</t>
+  </si>
+  <si>
+    <t>sword and shield Light Head Hit</t>
+  </si>
+  <si>
+    <t>Crouch Slash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1240,27 +1278,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>100001</v>
       </c>
@@ -1338,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>100002</v>
       </c>
@@ -1364,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>100003</v>
       </c>
@@ -1398,25 +1436,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1512,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1544,7 +1582,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -1576,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -1584,7 +1622,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G12" s="1">
         <v>11</v>
       </c>
@@ -1600,24 +1638,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +1707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1686,16 +1724,16 @@
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1712,16 +1750,16 @@
         <v>0.2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1738,70 +1776,73 @@
         <v>0.3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.4</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7">
-        <v>0.8</v>
-      </c>
       <c r="D7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0.3</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1810,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1819,24 +1860,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1845,74 +1886,230 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>501</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
         <v>150</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L20" t="s">
         <v>152</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
         <v>149</v>
       </c>
-      <c r="L15">
+      <c r="L21">
         <v>51</v>
       </c>
-      <c r="N15">
+      <c r="N21">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I16">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I24">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J24" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1924,22 +2121,101 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D599905-1D6B-4F1F-99C3-21F9C366F87F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1959,7 +2235,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1979,7 +2255,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2007,15 +2283,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2027,16 +2303,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2078,7 +2354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2092,7 +2368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2106,7 +2382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2120,7 +2396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2134,7 +2410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2155,16 +2431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2186,7 +2462,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2206,19 +2482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2232,7 +2508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2246,7 +2522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2254,7 +2530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -2262,7 +2538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -2270,7 +2546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1100</v>
       </c>
@@ -2278,7 +2554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -2293,16 +2569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2349,7 +2625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2387,7 +2663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2404,7 +2680,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2412,7 +2688,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C5">
         <v>3</v>
       </c>
@@ -2424,16 +2700,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2465,7 +2741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2497,7 +2773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2536,16 +2812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2553,7 +2829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +2867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2606,14 +2882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
@@ -2621,7 +2897,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2644,7 +2920,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2667,7 +2943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2687,7 +2963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2716,26 +2992,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08203125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2764,7 +3040,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +3069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>101</v>
       </c>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\PortPolio_Second\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555563B4-0080-4AE4-91C4-175C9BBCD377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868A041-B796-4F8B-93D1-E38AEC13E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1642,7 +1642,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>173</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>174</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>176</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>177</v>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\PortPolio_Second\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868A041-B796-4F8B-93D1-E38AEC13E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FAC9D-7C1B-40B6-81CB-908CFAAA9DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="camera" sheetId="1" r:id="rId1"/>
+    <sheet name="Camera" sheetId="1" r:id="rId1"/>
     <sheet name="Sound" sheetId="2" r:id="rId2"/>
     <sheet name="Loading" sheetId="4" r:id="rId3"/>
     <sheet name="Lan" sheetId="3" r:id="rId4"/>
@@ -21,12 +21,13 @@
     <sheet name="Defin_Item" sheetId="6" r:id="rId6"/>
     <sheet name="DeFine_Reward" sheetId="7" r:id="rId7"/>
     <sheet name="Player" sheetId="8" r:id="rId8"/>
-    <sheet name="Boss" sheetId="12" r:id="rId9"/>
-    <sheet name="Stat" sheetId="9" r:id="rId10"/>
-    <sheet name="Attack" sheetId="11" r:id="rId11"/>
-    <sheet name="Buff" sheetId="14" r:id="rId12"/>
-    <sheet name="AI" sheetId="10" r:id="rId13"/>
-    <sheet name="Item" sheetId="13" r:id="rId14"/>
+    <sheet name="Monster" sheetId="15" r:id="rId9"/>
+    <sheet name="Boss" sheetId="12" r:id="rId10"/>
+    <sheet name="Stat" sheetId="9" r:id="rId11"/>
+    <sheet name="Attack" sheetId="11" r:id="rId12"/>
+    <sheet name="Buff" sheetId="14" r:id="rId13"/>
+    <sheet name="AI" sheetId="10" r:id="rId14"/>
+    <sheet name="Item" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="192">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,14 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오크의 후려치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,10 +862,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오크의 올려치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회전 참격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -919,6 +908,64 @@
   </si>
   <si>
     <t>Crouch Slash</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforced Right Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Attack </t>
+  </si>
+  <si>
+    <t>오크 펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크의 강화된 펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크 내려찍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster/Normal/SkeletonShieldWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1282,7 +1329,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1352,7 +1399,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1378,7 +1425,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1404,7 +1451,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>100003</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1436,11 +1483,134 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.08203125" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1587,47 +1757,87 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>122</v>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G14" s="1">
+        <v>101</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1637,12 +1847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1730,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1756,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1782,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1790,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1808,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1816,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1834,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1842,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1860,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1868,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1886,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1894,7 +2104,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1912,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1920,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1938,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -2024,7 +2234,7 @@
         <v>1001</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2042,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -2050,16 +2260,80 @@
         <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
         <v>158</v>
       </c>
@@ -2067,7 +2341,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
         <v>150</v>
       </c>
@@ -2078,7 +2352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I21">
         <v>1</v>
       </c>
@@ -2092,7 +2366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I22">
         <v>4</v>
       </c>
@@ -2100,12 +2374,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I24">
         <v>21</v>
       </c>
@@ -2120,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D599905-1D6B-4F1F-99C3-21F9C366F87F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2199,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2283,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2306,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2886,7 +3160,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2971,7 +3245,7 @@
         <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2980,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2992,23 +3266,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E8263F-AEC3-4431-82F8-D93D5650DD0B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08203125" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -3018,8 +3293,8 @@
       <c r="B1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
-        <v>121</v>
+      <c r="C1" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -3047,11 +3322,11 @@
       <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
-        <v>128</v>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
@@ -3071,13 +3346,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -3086,13 +3361,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="I3">
         <v>1</v>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\PortPolio_Second\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FAC9D-7C1B-40B6-81CB-908CFAAA9DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA26CC7A-375E-4A4A-8B97-D787C566360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,293 +679,301 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startWaitTime</t>
+  </si>
+  <si>
+    <t>timeToRotate</t>
+  </si>
+  <si>
+    <t>viewRadius</t>
+  </si>
+  <si>
+    <t>viewAngle</t>
+  </si>
+  <si>
+    <t>시작 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약 밖을 탐지하는 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 시야각</t>
+  </si>
+  <si>
+    <t>적의 시야 반경(반지름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI의 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster/Boss/Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Melee Attack Backhand (2)</t>
+  </si>
+  <si>
+    <t>sword and shield slash1</t>
+  </si>
+  <si>
+    <t>sword and shield slash2</t>
+  </si>
+  <si>
+    <t>sword and shield slash3</t>
+  </si>
+  <si>
+    <t>sword and shield Spin Slash</t>
+  </si>
+  <si>
+    <t>sword and shield Spin Slash 2 Hand</t>
+  </si>
+  <si>
+    <t>sword and shield Light Head Hit</t>
+  </si>
+  <si>
+    <t>Crouch Slash</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforced Right Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Attack </t>
+  </si>
+  <si>
+    <t>Monster/Normal/SkeletonShieldWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idx</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dmg</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>CoolTime</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>NextNum</t>
+  </si>
+  <si>
+    <t>AnimName</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>기술 이름</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>공격 속도</t>
+  </si>
+  <si>
+    <t>후딜</t>
+  </si>
+  <si>
+    <t>사정거리</t>
+  </si>
+  <si>
+    <t>다음 연속기 번호</t>
+  </si>
+  <si>
+    <t>애니메이션 이름</t>
+  </si>
+  <si>
     <t>기본 공격 1 (우횡베기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본 공격 2 (대각선 올려치기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본 공격 3 (점프해서 내려 치기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 참격</t>
+  </si>
+  <si>
+    <t>무거운 회전 참격</t>
+  </si>
+  <si>
+    <t>머리 찍기</t>
+  </si>
+  <si>
+    <t>앉아서 베기</t>
+  </si>
+  <si>
+    <t>올려치기</t>
+  </si>
+  <si>
+    <t>육참골단</t>
   </si>
   <si>
     <t>기본 공격 1 (내려찍기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (궁수의 활 쏘기)</t>
   </si>
   <si>
     <t>킥 (모든 캐릭터가 가지는 공용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Kick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 1 (궁수의 활 쏘기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startWaitTime</t>
-  </si>
-  <si>
-    <t>timeToRotate</t>
-  </si>
-  <si>
-    <t>viewRadius</t>
-  </si>
-  <si>
-    <t>viewAngle</t>
-  </si>
-  <si>
-    <t>시작 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시약 밖을 탐지하는 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 시야각</t>
-  </si>
-  <si>
-    <t>적의 시야 반경(반지름)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI의 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster/Boss/Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player/Paladin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player/Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 참격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무거운 회전 참격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 찍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉아서 베기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standing Melee Attack Backhand (2)</t>
-  </si>
-  <si>
-    <t>올려치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육참골단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword and shield slash1</t>
-  </si>
-  <si>
-    <t>sword and shield slash2</t>
-  </si>
-  <si>
-    <t>sword and shield slash3</t>
-  </si>
-  <si>
-    <t>sword and shield Spin Slash</t>
-  </si>
-  <si>
-    <t>sword and shield Spin Slash 2 Hand</t>
-  </si>
-  <si>
-    <t>sword and shield Light Head Hit</t>
-  </si>
-  <si>
-    <t>Crouch Slash</t>
-  </si>
-  <si>
-    <t>스켈레톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스텟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크 펀치</t>
   </si>
   <si>
     <t>Punch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforced Right Punch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump Attack </t>
-  </si>
-  <si>
-    <t>오크 펀치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오크의 강화된 펀치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오크 내려찍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster/Normal/SkeletonShieldWarrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤의 횡베기</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>스켈레톤의 대각선 베기</t>
+  </si>
+  <si>
+    <t>Attack2</t>
+  </si>
+  <si>
+    <t>스켈레톤 방패병의 방패 들기</t>
+  </si>
+  <si>
+    <t>Shiled</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1518,10 @@
         <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>80</v>
@@ -1522,16 +1530,16 @@
         <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -1542,28 +1550,28 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -1571,10 +1579,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1592,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1821,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1829,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1837,7 +1845,7 @@
         <v>101</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1867,54 +1875,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1922,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1940,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1948,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1966,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1974,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1992,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -2000,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2018,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -2026,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2044,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -2052,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2070,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -2078,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2096,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -2104,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2122,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -2130,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2148,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -2156,7 +2164,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2174,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -2182,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <v>0.8</v>
@@ -2200,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -2208,7 +2216,7 @@
         <v>501</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2226,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -2234,7 +2242,7 @@
         <v>1001</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2252,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -2260,7 +2268,7 @@
         <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2278,15 +2286,15 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1003</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -2304,15 +2312,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2321,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2330,61 +2338,59 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I19" t="s">
-        <v>158</v>
-      </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" t="s">
-        <v>152</v>
-      </c>
-      <c r="N20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21">
-        <v>51</v>
-      </c>
-      <c r="N21">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I24">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>149</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2429,10 @@
         <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>112</v>
@@ -2438,7 +2444,7 @@
         <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2464,7 +2470,7 @@
         <v>111</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2497,16 +2503,16 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2517,16 +2523,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2567,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3231,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3234,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3242,10 +3248,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3254,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E8263F-AEC3-4431-82F8-D93D5650DD0B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3294,7 +3300,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -3303,16 +3309,16 @@
         <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -3326,22 +3332,22 @@
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -3349,10 +3355,10 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -3367,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="I3">
         <v>1</v>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\PortPolio_Second\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA26CC7A-375E-4A4A-8B97-D787C566360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557B0FF-9781-479D-8BD9-DEA16EA71D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,18 @@
     <sheet name="Loading" sheetId="4" r:id="rId3"/>
     <sheet name="Lan" sheetId="3" r:id="rId4"/>
     <sheet name="Defind_Stage" sheetId="5" r:id="rId5"/>
-    <sheet name="Defin_Item" sheetId="6" r:id="rId6"/>
-    <sheet name="DeFine_Reward" sheetId="7" r:id="rId7"/>
-    <sheet name="Player" sheetId="8" r:id="rId8"/>
-    <sheet name="Monster" sheetId="15" r:id="rId9"/>
-    <sheet name="Boss" sheetId="12" r:id="rId10"/>
-    <sheet name="Stat" sheetId="9" r:id="rId11"/>
-    <sheet name="Attack" sheetId="11" r:id="rId12"/>
-    <sheet name="Buff" sheetId="14" r:id="rId13"/>
-    <sheet name="AI" sheetId="10" r:id="rId14"/>
-    <sheet name="Item" sheetId="13" r:id="rId15"/>
+    <sheet name="DeFine_Reward" sheetId="7" r:id="rId6"/>
+    <sheet name="Player" sheetId="8" r:id="rId7"/>
+    <sheet name="Monster" sheetId="15" r:id="rId8"/>
+    <sheet name="Boss" sheetId="12" r:id="rId9"/>
+    <sheet name="Stat" sheetId="9" r:id="rId10"/>
+    <sheet name="Attack" sheetId="11" r:id="rId11"/>
+    <sheet name="Buff" sheetId="14" r:id="rId12"/>
+    <sheet name="AI" sheetId="10" r:id="rId13"/>
+    <sheet name="Item" sheetId="6" r:id="rId14"/>
+    <sheet name="Weapon" sheetId="16" r:id="rId15"/>
+    <sheet name="Armor" sheetId="18" r:id="rId16"/>
+    <sheet name="Consumable" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -212,8 +214,680 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>이태섭</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{615C53A8-1284-498F-9593-E7D40301752D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이태섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 weapon
+2 armor
+3 consumable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F48A6B51-A7CF-4E30-BD5C-D95F8FA2CC76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이태섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 hand
+2 helmet
+3 armor
+4 pant
+5 boots
+6 gloves
+7 ring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{78CBB1FA-3F57-42B8-B346-2289486C45BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이태섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">공용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">전사
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">궁수
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마법사</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>이태섭</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{61898091-53EF-4055-B5E0-8DFC72B8FDEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이태섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">칼
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>이태섭</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BB3D2657-C3E6-47EC-9546-DFCD11F694FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이태섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생명력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생명력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방어력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>증가</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="233">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,517 +1137,609 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Prefab_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrunchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 연속기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startWaitTime</t>
+  </si>
+  <si>
+    <t>timeToRotate</t>
+  </si>
+  <si>
+    <t>viewRadius</t>
+  </si>
+  <si>
+    <t>viewAngle</t>
+  </si>
+  <si>
+    <t>시작 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약 밖을 탐지하는 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 시야각</t>
+  </si>
+  <si>
+    <t>적의 시야 반경(반지름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI의 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster/Boss/Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Melee Attack Backhand (2)</t>
+  </si>
+  <si>
+    <t>sword and shield slash1</t>
+  </si>
+  <si>
+    <t>sword and shield slash2</t>
+  </si>
+  <si>
+    <t>sword and shield slash3</t>
+  </si>
+  <si>
+    <t>sword and shield Spin Slash</t>
+  </si>
+  <si>
+    <t>sword and shield Spin Slash 2 Hand</t>
+  </si>
+  <si>
+    <t>sword and shield Light Head Hit</t>
+  </si>
+  <si>
+    <t>Crouch Slash</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforced Right Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Attack </t>
+  </si>
+  <si>
+    <t>Monster/Normal/SkeletonShieldWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idx</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dmg</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>CoolTime</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>NextNum</t>
+  </si>
+  <si>
+    <t>AnimName</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>기술 이름</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>공격 속도</t>
+  </si>
+  <si>
+    <t>후딜</t>
+  </si>
+  <si>
+    <t>사정거리</t>
+  </si>
+  <si>
+    <t>다음 연속기 번호</t>
+  </si>
+  <si>
+    <t>애니메이션 이름</t>
+  </si>
+  <si>
+    <t>기본 공격 1 (우횡베기)</t>
+  </si>
+  <si>
+    <t>기본 공격 2 (대각선 올려치기)</t>
+  </si>
+  <si>
+    <t>기본 공격 3 (점프해서 내려 치기)</t>
+  </si>
+  <si>
+    <t>회전 참격</t>
+  </si>
+  <si>
+    <t>무거운 회전 참격</t>
+  </si>
+  <si>
+    <t>머리 찍기</t>
+  </si>
+  <si>
+    <t>앉아서 베기</t>
+  </si>
+  <si>
+    <t>올려치기</t>
+  </si>
+  <si>
+    <t>육참골단</t>
+  </si>
+  <si>
+    <t>기본 공격 1 (내려찍기)</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>기본 공격 1 (궁수의 활 쏘기)</t>
+  </si>
+  <si>
+    <t>킥 (모든 캐릭터가 가지는 공용)</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>오크 펀치</t>
+  </si>
+  <si>
+    <t>Punch</t>
+  </si>
+  <si>
+    <t>오크의 강화된 펀치</t>
+  </si>
+  <si>
+    <t>오크 내려찍기</t>
+  </si>
+  <si>
+    <t>스켈레톤의 횡베기</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>스켈레톤의 대각선 베기</t>
+  </si>
+  <si>
+    <t>Attack2</t>
+  </si>
+  <si>
+    <t>스켈레톤 방패병의 방패 들기</t>
+  </si>
+  <si>
+    <t>Shiled</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumableType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 수치?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IonHelemt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IonArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IonGloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongBow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
     <t>ItemEquip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipHeroYtep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipHerotype</t>
   </si>
   <si>
     <t>Item_LevelIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Icon</t>
+  </si>
+  <si>
+    <t>#Prefab</t>
   </si>
   <si>
     <t>#Dec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#텍스쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>타입</t>
   </si>
   <si>
     <t>장착부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>장착 가능 영웅 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이템 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스쳐Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹</t>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HerosBasic_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Prefab_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔라딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrunchSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉기 이동 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷는 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리기 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사정거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 연속기 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startWaitTime</t>
-  </si>
-  <si>
-    <t>timeToRotate</t>
-  </si>
-  <si>
-    <t>viewRadius</t>
-  </si>
-  <si>
-    <t>viewAngle</t>
-  </si>
-  <si>
-    <t>시작 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시약 밖을 탐지하는 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 시야각</t>
-  </si>
-  <si>
-    <t>적의 시야 반경(반지름)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI의 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster/Boss/Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player/Paladin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player/Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standing Melee Attack Backhand (2)</t>
-  </si>
-  <si>
-    <t>sword and shield slash1</t>
-  </si>
-  <si>
-    <t>sword and shield slash2</t>
-  </si>
-  <si>
-    <t>sword and shield slash3</t>
-  </si>
-  <si>
-    <t>sword and shield Spin Slash</t>
-  </si>
-  <si>
-    <t>sword and shield Spin Slash 2 Hand</t>
-  </si>
-  <si>
-    <t>sword and shield Light Head Hit</t>
-  </si>
-  <si>
-    <t>Crouch Slash</t>
-  </si>
-  <si>
-    <t>스켈레톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스텟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforced Right Punch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump Attack </t>
-  </si>
-  <si>
-    <t>Monster/Normal/SkeletonShieldWarrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idx</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Dmg</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>CoolTime</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>NextNum</t>
-  </si>
-  <si>
-    <t>AnimName</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>기술 이름</t>
-  </si>
-  <si>
-    <t>공격력</t>
-  </si>
-  <si>
-    <t>공격 속도</t>
-  </si>
-  <si>
-    <t>후딜</t>
-  </si>
-  <si>
-    <t>사정거리</t>
-  </si>
-  <si>
-    <t>다음 연속기 번호</t>
-  </si>
-  <si>
-    <t>애니메이션 이름</t>
-  </si>
-  <si>
-    <t>기본 공격 1 (우횡베기)</t>
-  </si>
-  <si>
-    <t>기본 공격 2 (대각선 올려치기)</t>
-  </si>
-  <si>
-    <t>기본 공격 3 (점프해서 내려 치기)</t>
-  </si>
-  <si>
-    <t>회전 참격</t>
-  </si>
-  <si>
-    <t>무거운 회전 참격</t>
-  </si>
-  <si>
-    <t>머리 찍기</t>
-  </si>
-  <si>
-    <t>앉아서 베기</t>
-  </si>
-  <si>
-    <t>올려치기</t>
-  </si>
-  <si>
-    <t>육참골단</t>
-  </si>
-  <si>
-    <t>기본 공격 1 (내려찍기)</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>기본 공격 1 (궁수의 활 쏘기)</t>
-  </si>
-  <si>
-    <t>킥 (모든 캐릭터가 가지는 공용)</t>
-  </si>
-  <si>
-    <t>Kick</t>
-  </si>
-  <si>
-    <t>오크 펀치</t>
-  </si>
-  <si>
-    <t>Punch</t>
-  </si>
-  <si>
-    <t>오크의 강화된 펀치</t>
-  </si>
-  <si>
-    <t>오크 내려찍기</t>
-  </si>
-  <si>
-    <t>스켈레톤의 횡베기</t>
-  </si>
-  <si>
-    <t>Attack1</t>
-  </si>
-  <si>
-    <t>스켈레톤의 대각선 베기</t>
-  </si>
-  <si>
-    <t>Attack2</t>
-  </si>
-  <si>
-    <t>스켈레톤 방패병의 방패 들기</t>
-  </si>
-  <si>
-    <t>Shiled</t>
+  </si>
+  <si>
+    <t>LongSword</t>
+  </si>
+  <si>
+    <t>가장 기본적인 론델검</t>
+  </si>
+  <si>
+    <t>LongBow</t>
+  </si>
+  <si>
+    <t>IonHelemt</t>
+  </si>
+  <si>
+    <t>IonArmor</t>
+  </si>
+  <si>
+    <t>IonBoots</t>
+  </si>
+  <si>
+    <t>IonGloves</t>
+  </si>
+  <si>
+    <t>HPPotion</t>
+  </si>
+  <si>
+    <t>MPPotion</t>
   </si>
 </sst>
 </file>
@@ -1491,129 +2257,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.08203125" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -1637,31 +2280,31 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -1669,31 +2312,31 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -1829,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1837,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1845,7 +2488,7 @@
         <v>101</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1855,11 +2498,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1875,54 +2518,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1930,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1948,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1956,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1974,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1982,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2000,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -2008,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2026,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -2034,7 +2677,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2052,7 +2695,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -2060,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2078,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -2086,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2104,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -2112,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2130,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -2138,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2156,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -2164,7 +2807,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2182,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -2190,7 +2833,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <v>0.8</v>
@@ -2208,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -2216,7 +2859,7 @@
         <v>501</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2234,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -2242,7 +2885,7 @@
         <v>1001</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2260,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -2268,7 +2911,7 @@
         <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2286,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -2294,7 +2937,7 @@
         <v>1003</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -2312,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -2320,7 +2963,7 @@
         <v>1011</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2338,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -2346,7 +2989,7 @@
         <v>1012</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2364,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -2372,7 +3015,7 @@
         <v>1013</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2390,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D599905-1D6B-4F1F-99C3-21F9C366F87F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2426,25 +3069,25 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2452,25 +3095,25 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +3122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2503,16 +3146,16 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2523,16 +3166,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2553,6 +3196,251 @@
       </c>
       <c r="F3">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2564,21 +3452,279 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54401CE6-3193-4C29-9E47-22C07AEED831}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7ECFED-5AF5-4048-9A60-146D7456139E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19230749-7749-46DC-8099-00501F5824A2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2980,118 +4126,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>60001</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -3117,34 +4151,34 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -3161,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3185,19 +4219,19 @@
         <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3208,19 +4242,19 @@
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3228,10 +4262,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3240,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3248,10 +4282,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3260,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +4305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E8263F-AEC3-4431-82F8-D93D5650DD0B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3297,28 +4331,28 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -3329,25 +4363,25 @@
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -3355,10 +4389,10 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -3373,9 +4407,132 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.08203125" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
